--- a/src/in/v2solutions/hybrid/mastertsmodule/MasterTSModule.xlsx
+++ b/src/in/v2solutions/hybrid/mastertsmodule/MasterTSModule.xlsx
@@ -1964,7 +1964,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1996,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2062,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
